--- a/pred_ohlcv/54_21/2020-01-23 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AE ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-94064.6577388857</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-94959.4975388857</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-84628.31023888569</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-91313.67222377233</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-92369.94972377233</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-120629.9227705465</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-128351.1038705465</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-127461.1038705465</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-137829.8474705465</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-135301.7122705465</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-103506.9587856599</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-107361.2841856599</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-107361.2841856599</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-107554.8903856599</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-107794.2650020162</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-107868.7041020162</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-98330.44870201619</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-91239.09550201619</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-91836.89660201619</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-43871.2381020162</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-43735.8934020162</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-37778.7014020162</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-48817.04560201619</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-47526.96420201619</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-48002.51260201619</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-62471.78610201619</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-63039.7872020162</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-63090.96210201619</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-63075.8621020162</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-69826.5862020162</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-69804.4005020162</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-72447.08290201622</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-74893.76390201622</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-74496.27820201621</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-75786.34990201621</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-75005.99240201621</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-138943.7595020162</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-165013.78712351</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-304023.53222351</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-304165.68862351</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-303790.71982351</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-372403.82462351</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-372382.93852351</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-372333.62212351</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AE ohlcv.xlsx
@@ -2446,7 +2446,7 @@
         <v>-91313.67222377233</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-92369.94972377233</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-120629.9227705465</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-128351.1038705465</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-127461.1038705465</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-137829.8474705465</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-135301.7122705465</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-103056.8997020162</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-43871.2381020162</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-43735.8934020162</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-48817.04560201619</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-47526.96420201619</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-48002.51260201619</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-62471.78610201619</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-63090.96210201619</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-72447.08290201622</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-74496.27820201621</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-85370.32070201621</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-138943.7595020162</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-165013.78712351</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-304023.53222351</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-304165.68862351</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-303790.71982351</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-372403.82462351</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-372382.93852351</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-372333.62212351</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-381124.69482351</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-349629.85652351</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-353279.6799235099</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-348511.46962351</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-339514.73282351</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-339519.73282351</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-338419.73282351</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
